--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/sites.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772DCF61-C9D7-4F97-9FDA-4E63D22D13BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488A137-C476-41E9-AB35-1A7F28D6BE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EF7B2CDC-01F9-41EF-8CF8-2C5AEBC748FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF7B2CDC-01F9-41EF-8CF8-2C5AEBC748FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>LGA</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Ward</t>
   </si>
   <si>
-    <t>Comm</t>
-  </si>
-  <si>
     <t>Long</t>
   </si>
   <si>
@@ -129,6 +126,66 @@
   </si>
   <si>
     <t>TASHAN NARONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community </t>
+  </si>
+  <si>
+    <t>KIRIKASAMA</t>
+  </si>
+  <si>
+    <t>TURABU</t>
+  </si>
+  <si>
+    <t>JIG_KIR_A_025</t>
+  </si>
+  <si>
+    <t>KAZAURE</t>
+  </si>
+  <si>
+    <t>GADA</t>
+  </si>
+  <si>
+    <t>JIG_KAZ_A_026</t>
+  </si>
+  <si>
+    <t>RINGIM</t>
+  </si>
+  <si>
+    <t>GABARIN</t>
+  </si>
+  <si>
+    <t>JIG_RIN_A_027</t>
+  </si>
+  <si>
+    <t>MALLAM MADORI</t>
+  </si>
+  <si>
+    <t>ARKI</t>
+  </si>
+  <si>
+    <t>JIG_MAM_A_028</t>
+  </si>
+  <si>
+    <t>AUYO</t>
+  </si>
+  <si>
+    <t>HADIYAU</t>
+  </si>
+  <si>
+    <t>JIG_AUY_A_029</t>
+  </si>
+  <si>
+    <t>TAURA</t>
+  </si>
+  <si>
+    <t>DAURAWA</t>
+  </si>
+  <si>
+    <t>JIG_TAU_A_030</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -166,7 +223,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249AE3EE-87B4-490A-89C7-40EB900DF942}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,16 +626,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
@@ -586,21 +650,21 @@
         <v>0</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>9.6112339999999996</v>
@@ -609,36 +673,36 @@
         <v>11.516622999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>8.1584669999999999</v>
@@ -647,33 +711,33 @@
         <v>12.785854</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>9.4272379999999991</v>
@@ -682,33 +746,33 @@
         <v>11.624177</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
       <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>8.8504070000000006</v>
@@ -717,33 +781,33 @@
         <v>12.52829</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>8.4351479999999999</v>
@@ -752,33 +816,33 @@
         <v>12.795935</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>8.8855579999999996</v>
@@ -787,31 +851,227 @@
         <v>12.319228000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P12">
-    <sortCondition ref="O2:O12"/>
-    <sortCondition ref="P2:P12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P14">
+    <sortCondition ref="O2:O14"/>
+    <sortCondition ref="P2:P14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c3a67db788bfb057b2db4972c06362d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13059b5e6b4741244ec9ec4e04bff113" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -1046,16 +1306,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C5A174-177A-4A02-8BD1-16C762A884BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044C41F6-708A-4426-95A0-4D900CD088EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1072,12 +1331,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C5A174-177A-4A02-8BD1-16C762A884BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>